--- a/data/zenodo/conversion/chp/CHE_convchp_nuclear.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_nuclear.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDFCA1D-7F5C-D347-9A1C-CA3D10D0807C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2421363-CA6F-0640-852F-5F79C7005E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="73">
   <si>
     <t>Name:</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -670,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -777,16 +780,13 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -798,13 +798,13 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -819,13 +819,13 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -840,16 +840,16 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -861,26 +861,18 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -890,19 +882,25 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -912,19 +910,21 @@
       <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>66</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -934,7 +934,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -942,9 +942,10 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -954,13 +955,13 @@
         <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>45</v>
@@ -974,15 +975,17 @@
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="H16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="2"/>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -992,13 +995,13 @@
         <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1010,19 +1013,13 @@
         <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="G18">
-        <v>0.81</v>
-      </c>
-      <c r="I18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" t="s">
-        <v>50</v>
+      <c r="H18" t="s">
+        <v>44</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1034,20 +1031,21 @@
         <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="G19">
-        <v>0.08</v>
+        <v>0.81</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1056,29 +1054,20 @@
       <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>22298</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
+        <v>0.08</v>
       </c>
       <c r="I20" t="s">
         <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1095,10 +1084,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G21">
-        <v>21654</v>
+        <v>22298</v>
       </c>
       <c r="H21" t="s">
         <v>52</v>
@@ -1127,10 +1116,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G22">
-        <v>22121</v>
+        <v>21654</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -1159,10 +1148,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G23">
-        <v>22029</v>
+        <v>22121</v>
       </c>
       <c r="H23" t="s">
         <v>52</v>
@@ -1191,10 +1180,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G24">
-        <v>22984</v>
+        <v>22029</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -1223,10 +1212,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G25">
-        <v>23486</v>
+        <v>22984</v>
       </c>
       <c r="H25" t="s">
         <v>52</v>
@@ -1255,10 +1244,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G26">
-        <v>23719</v>
+        <v>23486</v>
       </c>
       <c r="H26" t="s">
         <v>52</v>
@@ -1287,10 +1276,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G27">
-        <v>23971</v>
+        <v>23719</v>
       </c>
       <c r="H27" t="s">
         <v>52</v>
@@ -1319,10 +1308,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G28">
-        <v>24368</v>
+        <v>23971</v>
       </c>
       <c r="H28" t="s">
         <v>52</v>
@@ -1351,10 +1340,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G29">
-        <v>23523</v>
+        <v>24368</v>
       </c>
       <c r="H29" t="s">
         <v>52</v>
@@ -1383,10 +1372,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G30">
-        <v>24949</v>
+        <v>23523</v>
       </c>
       <c r="H30" t="s">
         <v>52</v>
@@ -1415,10 +1404,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G31">
-        <v>25293</v>
+        <v>24949</v>
       </c>
       <c r="H31" t="s">
         <v>52</v>
@@ -1447,10 +1436,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G32">
-        <v>25692</v>
+        <v>25293</v>
       </c>
       <c r="H32" t="s">
         <v>52</v>
@@ -1479,10 +1468,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G33">
-        <v>25931</v>
+        <v>25692</v>
       </c>
       <c r="H33" t="s">
         <v>52</v>
@@ -1511,10 +1500,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G34">
-        <v>25432</v>
+        <v>25931</v>
       </c>
       <c r="H34" t="s">
         <v>52</v>
@@ -1543,10 +1532,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G35">
-        <v>22020</v>
+        <v>25432</v>
       </c>
       <c r="H35" t="s">
         <v>52</v>
@@ -1575,10 +1564,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G36">
-        <v>26244</v>
+        <v>22020</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
@@ -1607,10 +1596,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G37">
-        <v>26344</v>
+        <v>26244</v>
       </c>
       <c r="H37" t="s">
         <v>52</v>
@@ -1639,10 +1628,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G38">
-        <v>26132</v>
+        <v>26344</v>
       </c>
       <c r="H38" t="s">
         <v>52</v>
@@ -1671,10 +1660,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G39">
-        <v>26119</v>
+        <v>26132</v>
       </c>
       <c r="H39" t="s">
         <v>52</v>
@@ -1703,10 +1692,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G40">
-        <v>25205</v>
+        <v>26119</v>
       </c>
       <c r="H40" t="s">
         <v>52</v>
@@ -1735,10 +1724,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G41">
-        <v>25560</v>
+        <v>25205</v>
       </c>
       <c r="H41" t="s">
         <v>52</v>
@@ -1767,10 +1756,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G42">
-        <v>24345</v>
+        <v>25560</v>
       </c>
       <c r="H42" t="s">
         <v>52</v>
@@ -1799,10 +1788,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G43">
-        <v>24871</v>
+        <v>24345</v>
       </c>
       <c r="H43" t="s">
         <v>52</v>
@@ -1831,10 +1820,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G44">
-        <v>26370</v>
+        <v>24871</v>
       </c>
       <c r="H44" t="s">
         <v>52</v>
@@ -1863,10 +1852,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G45">
-        <v>22095</v>
+        <v>26370</v>
       </c>
       <c r="H45" t="s">
         <v>52</v>
@@ -1895,10 +1884,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G46">
-        <v>20235</v>
+        <v>22095</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
@@ -1927,10 +1916,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G47">
-        <v>19499</v>
+        <v>20235</v>
       </c>
       <c r="H47" t="s">
         <v>52</v>
@@ -1959,10 +1948,10 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G48">
-        <v>24414</v>
+        <v>19499</v>
       </c>
       <c r="H48" t="s">
         <v>52</v>
@@ -1991,10 +1980,10 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G49">
-        <v>25280</v>
+        <v>24414</v>
       </c>
       <c r="H49" t="s">
         <v>52</v>
@@ -2017,25 +2006,28 @@
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G50">
-        <v>2950</v>
+        <v>25280</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s">
         <v>45</v>
       </c>
       <c r="J50" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="L50" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2052,7 +2044,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G51">
         <v>2950</v>
@@ -2081,7 +2073,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G52">
         <v>2950</v>
@@ -2110,10 +2102,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G53">
-        <v>2985</v>
+        <v>2950</v>
       </c>
       <c r="H53" t="s">
         <v>55</v>
@@ -2139,7 +2131,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G54">
         <v>2985</v>
@@ -2168,10 +2160,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G55">
-        <v>3055</v>
+        <v>2985</v>
       </c>
       <c r="H55" t="s">
         <v>55</v>
@@ -2197,10 +2189,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G56">
-        <v>3077</v>
+        <v>3055</v>
       </c>
       <c r="H56" t="s">
         <v>55</v>
@@ -2226,7 +2218,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G57">
         <v>3077</v>
@@ -2255,10 +2247,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G58">
-        <v>3127</v>
+        <v>3077</v>
       </c>
       <c r="H58" t="s">
         <v>55</v>
@@ -2284,10 +2276,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G59">
-        <v>3162</v>
+        <v>3127</v>
       </c>
       <c r="H59" t="s">
         <v>55</v>
@@ -2313,10 +2305,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G60">
-        <v>3200</v>
+        <v>3162</v>
       </c>
       <c r="H60" t="s">
         <v>55</v>
@@ -2342,7 +2334,7 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G61">
         <v>3200</v>
@@ -2371,10 +2363,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G62">
-        <v>3220</v>
+        <v>3200</v>
       </c>
       <c r="H62" t="s">
         <v>55</v>
@@ -2400,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G63">
         <v>3220</v>
@@ -2429,7 +2421,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G64">
         <v>3220</v>
@@ -2458,7 +2450,7 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G65">
         <v>3220</v>
@@ -2487,7 +2479,7 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G66">
         <v>3220</v>
@@ -2516,7 +2508,7 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G67">
         <v>3220</v>
@@ -2545,7 +2537,7 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G68">
         <v>3220</v>
@@ -2574,10 +2566,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69">
-        <v>3238</v>
+        <v>3220</v>
       </c>
       <c r="H69" t="s">
         <v>55</v>
@@ -2603,10 +2595,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G70">
-        <v>3253</v>
+        <v>3238</v>
       </c>
       <c r="H70" t="s">
         <v>55</v>
@@ -2632,10 +2624,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G71">
-        <v>3278</v>
+        <v>3253</v>
       </c>
       <c r="H71" t="s">
         <v>55</v>
@@ -2661,7 +2653,7 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G72">
         <v>3278</v>
@@ -2690,10 +2682,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G73">
-        <v>3308</v>
+        <v>3278</v>
       </c>
       <c r="H73" t="s">
         <v>55</v>
@@ -2719,10 +2711,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G74">
-        <v>3333</v>
+        <v>3308</v>
       </c>
       <c r="H74" t="s">
         <v>55</v>
@@ -2748,7 +2740,7 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G75">
         <v>3333</v>
@@ -2777,7 +2769,7 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G76">
         <v>3333</v>
@@ -2806,7 +2798,7 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G77">
         <v>3333</v>
@@ -2835,7 +2827,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78">
         <v>3333</v>
@@ -2864,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G79">
         <v>3333</v>
@@ -2887,16 +2879,16 @@
         <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>3333</v>
       </c>
       <c r="H80" t="s">
         <v>55</v>
@@ -2922,7 +2914,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2951,7 +2943,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2980,10 +2972,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G83">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
         <v>55</v>
@@ -3009,10 +3001,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H84" t="s">
         <v>55</v>
@@ -3038,10 +3030,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G85">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
         <v>55</v>
@@ -3067,10 +3059,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G86">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="H86" t="s">
         <v>55</v>
@@ -3096,10 +3088,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H87" t="s">
         <v>55</v>
@@ -3125,10 +3117,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G88">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>55</v>
@@ -3154,10 +3146,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G89">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H89" t="s">
         <v>55</v>
@@ -3183,10 +3175,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G90">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H90" t="s">
         <v>55</v>
@@ -3212,10 +3204,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H91" t="s">
         <v>55</v>
@@ -3241,10 +3233,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G92">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>55</v>
@@ -3270,10 +3262,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H93" t="s">
         <v>55</v>
@@ -3299,7 +3291,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3328,7 +3320,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3357,7 +3349,7 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3386,7 +3378,7 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3415,7 +3407,7 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3444,10 +3436,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G99">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
         <v>55</v>
@@ -3473,10 +3465,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G100">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H100" t="s">
         <v>55</v>
@@ -3502,10 +3494,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G101">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H101" t="s">
         <v>55</v>
@@ -3531,10 +3523,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H102" t="s">
         <v>55</v>
@@ -3560,10 +3552,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G103">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H103" t="s">
         <v>55</v>
@@ -3589,10 +3581,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G104">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H104" t="s">
         <v>55</v>
@@ -3618,10 +3610,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H105" t="s">
         <v>55</v>
@@ -3647,7 +3639,7 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3676,7 +3668,7 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3705,7 +3697,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3734,7 +3726,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3757,13 +3749,13 @@
         <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3792,7 +3784,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3821,7 +3813,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3850,7 +3842,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3879,7 +3871,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3908,7 +3900,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3937,7 +3929,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3966,7 +3958,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3995,7 +3987,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4024,7 +4016,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4053,7 +4045,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4082,7 +4074,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4111,7 +4103,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4140,7 +4132,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4169,7 +4161,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4198,7 +4190,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4227,7 +4219,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4256,7 +4248,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4285,7 +4277,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4314,7 +4306,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4343,7 +4335,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4372,7 +4364,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4401,7 +4393,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4430,7 +4422,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4459,7 +4451,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4488,7 +4480,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4517,7 +4509,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4546,7 +4538,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4575,7 +4567,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4604,7 +4596,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4627,16 +4619,25 @@
         <v>42</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>55</v>
       </c>
       <c r="I140" t="s">
         <v>45</v>
+      </c>
+      <c r="J140" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -4653,7 +4654,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I141" t="s">
         <v>45</v>
@@ -4673,7 +4674,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I142" t="s">
         <v>45</v>
@@ -4693,7 +4694,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I143" t="s">
         <v>45</v>
@@ -4713,7 +4714,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>45</v>
@@ -4733,7 +4734,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I145" t="s">
         <v>45</v>
@@ -4753,7 +4754,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I146" t="s">
         <v>45</v>
@@ -4773,7 +4774,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I147" t="s">
         <v>45</v>
@@ -4793,7 +4794,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I148" t="s">
         <v>45</v>
@@ -4813,7 +4814,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I149" t="s">
         <v>45</v>
@@ -4833,7 +4834,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I150" t="s">
         <v>45</v>
@@ -4853,7 +4854,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I151" t="s">
         <v>45</v>
@@ -4873,7 +4874,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I152" t="s">
         <v>45</v>
@@ -4893,7 +4894,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I153" t="s">
         <v>45</v>
@@ -4913,7 +4914,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I154" t="s">
         <v>45</v>
@@ -4933,7 +4934,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I155" t="s">
         <v>45</v>
@@ -4953,7 +4954,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I156" t="s">
         <v>45</v>
@@ -4973,7 +4974,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I157" t="s">
         <v>45</v>
@@ -4993,7 +4994,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I158" t="s">
         <v>45</v>
@@ -5013,7 +5014,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I159" t="s">
         <v>45</v>
@@ -5033,7 +5034,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I160" t="s">
         <v>45</v>
@@ -5053,7 +5054,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I161" t="s">
         <v>45</v>
@@ -5073,7 +5074,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I162" t="s">
         <v>45</v>
@@ -5093,7 +5094,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I163" t="s">
         <v>45</v>
@@ -5113,7 +5114,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I164" t="s">
         <v>45</v>
@@ -5133,7 +5134,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I165" t="s">
         <v>45</v>
@@ -5153,7 +5154,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I166" t="s">
         <v>45</v>
@@ -5173,7 +5174,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I167" t="s">
         <v>45</v>
@@ -5193,22 +5194,10 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>2018</v>
-      </c>
-      <c r="G168">
-        <v>120</v>
-      </c>
-      <c r="H168" t="s">
-        <v>57</v>
+        <v>2017</v>
       </c>
       <c r="I168" t="s">
         <v>45</v>
-      </c>
-      <c r="J168" t="s">
-        <v>58</v>
-      </c>
-      <c r="L168" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5225,10 +5214,22 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G169">
+        <v>120</v>
+      </c>
+      <c r="H169" t="s">
+        <v>57</v>
       </c>
       <c r="I169" t="s">
         <v>45</v>
+      </c>
+      <c r="J169" t="s">
+        <v>58</v>
+      </c>
+      <c r="L169" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -5239,13 +5240,13 @@
         <v>42</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I170" t="s">
         <v>45</v>
@@ -5265,7 +5266,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I171" t="s">
         <v>45</v>
@@ -5285,7 +5286,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I172" t="s">
         <v>45</v>
@@ -5305,7 +5306,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I173" t="s">
         <v>45</v>
@@ -5325,7 +5326,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I174" t="s">
         <v>45</v>
@@ -5345,7 +5346,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I175" t="s">
         <v>45</v>
@@ -5365,7 +5366,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I176" t="s">
         <v>45</v>
@@ -5385,7 +5386,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I177" t="s">
         <v>45</v>
@@ -5405,7 +5406,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I178" t="s">
         <v>45</v>
@@ -5425,7 +5426,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I179" t="s">
         <v>45</v>
@@ -5445,7 +5446,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I180" t="s">
         <v>45</v>
@@ -5465,7 +5466,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I181" t="s">
         <v>45</v>
@@ -5485,7 +5486,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I182" t="s">
         <v>45</v>
@@ -5505,7 +5506,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I183" t="s">
         <v>45</v>
@@ -5525,7 +5526,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I184" t="s">
         <v>45</v>
@@ -5545,7 +5546,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I185" t="s">
         <v>45</v>
@@ -5565,7 +5566,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I186" t="s">
         <v>45</v>
@@ -5585,7 +5586,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I187" t="s">
         <v>45</v>
@@ -5605,7 +5606,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I188" t="s">
         <v>45</v>
@@ -5625,7 +5626,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I189" t="s">
         <v>45</v>
@@ -5645,7 +5646,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I190" t="s">
         <v>45</v>
@@ -5665,7 +5666,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I191" t="s">
         <v>45</v>
@@ -5685,7 +5686,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I192" t="s">
         <v>45</v>
@@ -5705,7 +5706,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I193" t="s">
         <v>45</v>
@@ -5725,7 +5726,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I194" t="s">
         <v>45</v>
@@ -5745,7 +5746,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I195" t="s">
         <v>45</v>
@@ -5765,7 +5766,7 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I196" t="s">
         <v>45</v>
@@ -5785,7 +5786,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I197" t="s">
         <v>45</v>
@@ -5805,22 +5806,10 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>2018</v>
-      </c>
-      <c r="G198">
-        <v>5300</v>
-      </c>
-      <c r="H198" t="s">
-        <v>57</v>
+        <v>2017</v>
       </c>
       <c r="I198" t="s">
         <v>45</v>
-      </c>
-      <c r="J198" t="s">
-        <v>58</v>
-      </c>
-      <c r="L198" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -5837,10 +5826,22 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G199">
+        <v>5300</v>
+      </c>
+      <c r="H199" t="s">
+        <v>57</v>
       </c>
       <c r="I199" t="s">
         <v>45</v>
+      </c>
+      <c r="J199" t="s">
+        <v>58</v>
+      </c>
+      <c r="L199" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -5851,13 +5852,13 @@
         <v>42</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I200" t="s">
         <v>45</v>
@@ -5877,7 +5878,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I201" t="s">
         <v>45</v>
@@ -5897,7 +5898,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I202" t="s">
         <v>45</v>
@@ -5917,7 +5918,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I203" t="s">
         <v>45</v>
@@ -5937,7 +5938,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I204" t="s">
         <v>45</v>
@@ -5957,7 +5958,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I205" t="s">
         <v>45</v>
@@ -5977,7 +5978,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I206" t="s">
         <v>45</v>
@@ -5997,7 +5998,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I207" t="s">
         <v>45</v>
@@ -6017,7 +6018,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I208" t="s">
         <v>45</v>
@@ -6037,7 +6038,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I209" t="s">
         <v>45</v>
@@ -6057,7 +6058,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I210" t="s">
         <v>45</v>
@@ -6077,7 +6078,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I211" t="s">
         <v>45</v>
@@ -6097,7 +6098,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I212" t="s">
         <v>45</v>
@@ -6117,7 +6118,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I213" t="s">
         <v>45</v>
@@ -6137,7 +6138,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I214" t="s">
         <v>45</v>
@@ -6157,7 +6158,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I215" t="s">
         <v>45</v>
@@ -6177,7 +6178,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I216" t="s">
         <v>45</v>
@@ -6197,7 +6198,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I217" t="s">
         <v>45</v>
@@ -6217,7 +6218,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I218" t="s">
         <v>45</v>
@@ -6237,7 +6238,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I219" t="s">
         <v>45</v>
@@ -6257,7 +6258,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I220" t="s">
         <v>45</v>
@@ -6277,7 +6278,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I221" t="s">
         <v>45</v>
@@ -6297,7 +6298,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I222" t="s">
         <v>45</v>
@@ -6317,7 +6318,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I223" t="s">
         <v>45</v>
@@ -6337,7 +6338,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I224" t="s">
         <v>45</v>
@@ -6357,7 +6358,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I225" t="s">
         <v>45</v>
@@ -6377,7 +6378,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I226" t="s">
         <v>45</v>
@@ -6397,7 +6398,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I227" t="s">
         <v>45</v>
@@ -6417,22 +6418,10 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>2018</v>
-      </c>
-      <c r="G228">
-        <v>6.4</v>
-      </c>
-      <c r="H228" t="s">
-        <v>60</v>
+        <v>2017</v>
       </c>
       <c r="I228" t="s">
         <v>45</v>
-      </c>
-      <c r="J228" t="s">
-        <v>58</v>
-      </c>
-      <c r="L228" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6449,10 +6438,22 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G229">
+        <v>6.4</v>
+      </c>
+      <c r="H229" t="s">
+        <v>60</v>
       </c>
       <c r="I229" t="s">
         <v>45</v>
+      </c>
+      <c r="J229" t="s">
+        <v>58</v>
+      </c>
+      <c r="L229" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6463,28 +6464,16 @@
         <v>42</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s">
-        <v>55</v>
+        <v>2019</v>
       </c>
       <c r="I230" t="s">
         <v>45</v>
-      </c>
-      <c r="J230" t="s">
-        <v>56</v>
-      </c>
-      <c r="L230" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -6501,7 +6490,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6533,7 +6522,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6565,7 +6554,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6597,7 +6586,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6629,7 +6618,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6661,7 +6650,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6693,7 +6682,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6725,7 +6714,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6757,7 +6746,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6789,7 +6778,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6821,7 +6810,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6853,7 +6842,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6885,7 +6874,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6917,7 +6906,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6949,7 +6938,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6981,7 +6970,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7013,7 +7002,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7045,7 +7034,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7077,7 +7066,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7109,7 +7098,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7141,7 +7130,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7173,7 +7162,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7205,7 +7194,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7237,7 +7226,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7269,7 +7258,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7301,7 +7290,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7333,7 +7322,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7365,7 +7354,7 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -7397,7 +7386,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -7423,22 +7412,28 @@
         <v>42</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G260">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>55</v>
       </c>
       <c r="I260" t="s">
         <v>45</v>
       </c>
       <c r="J260" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="L260" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7455,13 +7450,16 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I261" t="s">
         <v>45</v>
+      </c>
+      <c r="J261" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7478,7 +7476,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -7501,7 +7499,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -7524,7 +7522,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -7547,7 +7545,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -7570,7 +7568,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -7593,7 +7591,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -7616,7 +7614,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -7639,7 +7637,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -7662,7 +7660,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -7685,7 +7683,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -7708,7 +7706,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -7731,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -7754,7 +7752,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -7777,7 +7775,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -7800,7 +7798,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -7823,7 +7821,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -7846,7 +7844,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -7869,7 +7867,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -7892,7 +7890,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -7915,7 +7913,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -7938,7 +7936,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -7961,7 +7959,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -7984,7 +7982,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -8007,7 +8005,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -8030,7 +8028,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -8053,7 +8051,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -8076,7 +8074,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -8099,7 +8097,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -8116,22 +8114,19 @@
         <v>42</v>
       </c>
       <c r="C290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I290" t="s">
         <v>45</v>
-      </c>
-      <c r="J290" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -8148,10 +8143,10 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G291">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I291" t="s">
         <v>45</v>
@@ -8174,7 +8169,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G292">
         <v>0.7</v>
@@ -8200,7 +8195,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G293">
         <v>0.7</v>
@@ -8226,7 +8221,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G294">
         <v>0.7</v>
@@ -8252,7 +8247,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G295">
         <v>0.7</v>
@@ -8278,7 +8273,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G296">
         <v>0.7</v>
@@ -8304,7 +8299,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G297">
         <v>0.7</v>
@@ -8330,7 +8325,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G298">
         <v>0.7</v>
@@ -8356,7 +8351,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G299">
         <v>0.7</v>
@@ -8382,7 +8377,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G300">
         <v>0.7</v>
@@ -8408,7 +8403,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G301">
         <v>0.7</v>
@@ -8434,7 +8429,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302">
         <v>0.7</v>
@@ -8460,7 +8455,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G303">
         <v>0.7</v>
@@ -8486,7 +8481,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G304">
         <v>0.7</v>
@@ -8512,7 +8507,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G305">
         <v>0.7</v>
@@ -8538,7 +8533,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G306">
         <v>0.7</v>
@@ -8564,7 +8559,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G307">
         <v>0.7</v>
@@ -8590,7 +8585,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G308">
         <v>0.7</v>
@@ -8616,7 +8611,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G309">
         <v>0.7</v>
@@ -8642,7 +8637,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G310">
         <v>0.7</v>
@@ -8668,7 +8663,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G311">
         <v>0.7</v>
@@ -8694,7 +8689,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G312">
         <v>0.7</v>
@@ -8720,7 +8715,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G313">
         <v>0.7</v>
@@ -8746,7 +8741,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G314">
         <v>0.7</v>
@@ -8772,7 +8767,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G315">
         <v>0.7</v>
@@ -8798,7 +8793,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G316">
         <v>0.7</v>
@@ -8824,7 +8819,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G317">
         <v>0.7</v>
@@ -8850,7 +8845,7 @@
         <v>39</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G318">
         <v>0.7</v>
@@ -8876,7 +8871,7 @@
         <v>39</v>
       </c>
       <c r="E319">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G319">
         <v>0.7</v>
@@ -8888,11 +8883,37 @@
         <v>62</v>
       </c>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K432" s="2"/>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>42</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320">
+        <v>2019</v>
+      </c>
+      <c r="G320">
+        <v>0.7</v>
+      </c>
+      <c r="I320" t="s">
+        <v>45</v>
+      </c>
+      <c r="J320" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L853" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/conversion/chp/CHE_convchp_nuclear.xlsx
+++ b/data/zenodo/conversion/chp/CHE_convchp_nuclear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2421363-CA6F-0640-852F-5F79C7005E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D7A43C-4A72-1E48-A334-4C85B5A535E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="74">
   <si>
     <t>Name:</t>
   </si>
@@ -253,6 +253,9 @@
   <si>
     <t>enable_year</t>
   </si>
+  <si>
+    <t>Assumption</t>
+  </si>
 </sst>
 </file>
 
@@ -353,9 +356,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,9 +396,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,26 +431,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,26 +466,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,8 +645,8 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="5" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7453,7 +7422,7 @@
         <v>1990</v>
       </c>
       <c r="G261">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I261" t="s">
         <v>45</v>
@@ -8146,13 +8115,10 @@
         <v>1990</v>
       </c>
       <c r="G291">
-        <v>0</v>
-      </c>
-      <c r="I291" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J291" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -8172,13 +8138,10 @@
         <v>1991</v>
       </c>
       <c r="G292">
-        <v>0.7</v>
-      </c>
-      <c r="I292" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J292" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
@@ -8198,13 +8161,10 @@
         <v>1992</v>
       </c>
       <c r="G293">
-        <v>0.7</v>
-      </c>
-      <c r="I293" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J293" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
@@ -8224,13 +8184,10 @@
         <v>1993</v>
       </c>
       <c r="G294">
-        <v>0.7</v>
-      </c>
-      <c r="I294" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J294" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
@@ -8250,13 +8207,10 @@
         <v>1994</v>
       </c>
       <c r="G295">
-        <v>0.7</v>
-      </c>
-      <c r="I295" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J295" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -8276,13 +8230,10 @@
         <v>1995</v>
       </c>
       <c r="G296">
-        <v>0.7</v>
-      </c>
-      <c r="I296" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J296" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
@@ -8302,13 +8253,10 @@
         <v>1996</v>
       </c>
       <c r="G297">
-        <v>0.7</v>
-      </c>
-      <c r="I297" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J297" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
@@ -8328,13 +8276,10 @@
         <v>1997</v>
       </c>
       <c r="G298">
-        <v>0.7</v>
-      </c>
-      <c r="I298" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J298" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
@@ -8354,13 +8299,10 @@
         <v>1998</v>
       </c>
       <c r="G299">
-        <v>0.7</v>
-      </c>
-      <c r="I299" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J299" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
@@ -8380,13 +8322,10 @@
         <v>1999</v>
       </c>
       <c r="G300">
-        <v>0.7</v>
-      </c>
-      <c r="I300" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J300" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
@@ -8406,13 +8345,10 @@
         <v>2000</v>
       </c>
       <c r="G301">
-        <v>0.7</v>
-      </c>
-      <c r="I301" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J301" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
@@ -8432,13 +8368,10 @@
         <v>2001</v>
       </c>
       <c r="G302">
-        <v>0.7</v>
-      </c>
-      <c r="I302" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J302" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
@@ -8458,13 +8391,10 @@
         <v>2002</v>
       </c>
       <c r="G303">
-        <v>0.7</v>
-      </c>
-      <c r="I303" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J303" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
@@ -8484,13 +8414,10 @@
         <v>2003</v>
       </c>
       <c r="G304">
-        <v>0.7</v>
-      </c>
-      <c r="I304" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J304" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
@@ -8510,13 +8437,10 @@
         <v>2004</v>
       </c>
       <c r="G305">
-        <v>0.7</v>
-      </c>
-      <c r="I305" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J305" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
@@ -8536,13 +8460,10 @@
         <v>2005</v>
       </c>
       <c r="G306">
-        <v>0.7</v>
-      </c>
-      <c r="I306" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J306" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
@@ -8562,13 +8483,10 @@
         <v>2006</v>
       </c>
       <c r="G307">
-        <v>0.7</v>
-      </c>
-      <c r="I307" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J307" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
@@ -8588,13 +8506,10 @@
         <v>2007</v>
       </c>
       <c r="G308">
-        <v>0.7</v>
-      </c>
-      <c r="I308" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J308" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
@@ -8614,13 +8529,10 @@
         <v>2008</v>
       </c>
       <c r="G309">
-        <v>0.7</v>
-      </c>
-      <c r="I309" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J309" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
@@ -8640,13 +8552,10 @@
         <v>2009</v>
       </c>
       <c r="G310">
-        <v>0.7</v>
-      </c>
-      <c r="I310" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J310" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
@@ -8666,13 +8575,10 @@
         <v>2010</v>
       </c>
       <c r="G311">
-        <v>0.7</v>
-      </c>
-      <c r="I311" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J311" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
@@ -8692,13 +8598,10 @@
         <v>2011</v>
       </c>
       <c r="G312">
-        <v>0.7</v>
-      </c>
-      <c r="I312" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J312" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
@@ -8718,13 +8621,10 @@
         <v>2012</v>
       </c>
       <c r="G313">
-        <v>0.7</v>
-      </c>
-      <c r="I313" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J313" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -8744,13 +8644,10 @@
         <v>2013</v>
       </c>
       <c r="G314">
-        <v>0.7</v>
-      </c>
-      <c r="I314" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J314" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
@@ -8770,13 +8667,10 @@
         <v>2014</v>
       </c>
       <c r="G315">
-        <v>0.7</v>
-      </c>
-      <c r="I315" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J315" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
@@ -8796,13 +8690,10 @@
         <v>2015</v>
       </c>
       <c r="G316">
-        <v>0.7</v>
-      </c>
-      <c r="I316" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J316" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
@@ -8822,13 +8713,10 @@
         <v>2016</v>
       </c>
       <c r="G317">
-        <v>0.7</v>
-      </c>
-      <c r="I317" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J317" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
@@ -8848,13 +8736,10 @@
         <v>2017</v>
       </c>
       <c r="G318">
-        <v>0.7</v>
-      </c>
-      <c r="I318" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J318" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
@@ -8874,13 +8759,10 @@
         <v>2018</v>
       </c>
       <c r="G319">
-        <v>0.7</v>
-      </c>
-      <c r="I319" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J319" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
@@ -8900,13 +8782,10 @@
         <v>2019</v>
       </c>
       <c r="G320">
-        <v>0.7</v>
-      </c>
-      <c r="I320" t="s">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="J320" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="433" spans="11:11" x14ac:dyDescent="0.2">
